--- a/docs/Matrices.xlsx
+++ b/docs/Matrices.xlsx
@@ -917,7 +917,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -973,9 +973,6 @@
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="35" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,9 +983,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="35" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1002,6 +996,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="35" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="35" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -3936,7 +3933,7 @@
   <dimension ref="A1:AV42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4526,7 +4523,7 @@
       <c r="B5" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="43">
         <v>4</v>
       </c>
       <c r="D5" s="32">
@@ -4964,7 +4961,7 @@
       <c r="B8" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>7</v>
       </c>
       <c r="D8" s="32">
@@ -4982,7 +4979,7 @@
       <c r="H8" s="32">
         <v>600</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="43">
         <v>5</v>
       </c>
       <c r="J8" s="32">
@@ -5334,16 +5331,16 @@
       <c r="AB10" s="32">
         <v>600</v>
       </c>
-      <c r="AC10" s="39">
+      <c r="AC10" s="38">
         <v>10</v>
       </c>
-      <c r="AD10" s="39">
+      <c r="AD10" s="38">
         <v>11</v>
       </c>
-      <c r="AE10" s="39">
+      <c r="AE10" s="38">
         <v>12</v>
       </c>
-      <c r="AF10" s="39">
+      <c r="AF10" s="38">
         <v>13</v>
       </c>
       <c r="AG10" s="32">
@@ -5545,10 +5542,10 @@
       <c r="A12" s="33">
         <v>9</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="38">
         <v>18</v>
       </c>
       <c r="D12" s="32">
@@ -5653,7 +5650,7 @@
       <c r="AK12" s="32">
         <v>600</v>
       </c>
-      <c r="AL12" s="39">
+      <c r="AL12" s="38">
         <v>19</v>
       </c>
       <c r="AM12" s="36">
@@ -5662,13 +5659,13 @@
       <c r="AN12" s="36">
         <v>17</v>
       </c>
-      <c r="AO12" s="39">
+      <c r="AO12" s="38">
         <v>20</v>
       </c>
       <c r="AP12" s="36">
         <v>17</v>
       </c>
-      <c r="AQ12" s="39">
+      <c r="AQ12" s="38">
         <v>21</v>
       </c>
       <c r="AR12" s="36">
@@ -5677,10 +5674,10 @@
       <c r="AS12" s="32">
         <v>600</v>
       </c>
-      <c r="AT12" s="39">
+      <c r="AT12" s="38">
         <v>22</v>
       </c>
-      <c r="AU12" s="39">
+      <c r="AU12" s="38">
         <v>23</v>
       </c>
       <c r="AV12" s="32">
@@ -5691,7 +5688,7 @@
       <c r="A13" s="33">
         <v>10</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="40" t="s">
         <v>121</v>
       </c>
       <c r="C13" s="36">
@@ -5837,7 +5834,7 @@
       <c r="A14" s="33">
         <v>11</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="40" t="s">
         <v>115</v>
       </c>
       <c r="C14" s="36">
@@ -6275,7 +6272,7 @@
       <c r="A17" s="33">
         <v>14</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="42" t="s">
         <v>172</v>
       </c>
       <c r="C17" s="32">
@@ -8027,55 +8024,147 @@
       <c r="A29" s="33">
         <v>26</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="32"/>
-      <c r="AK29" s="32"/>
-      <c r="AL29" s="32"/>
-      <c r="AM29" s="32"/>
-      <c r="AN29" s="32"/>
-      <c r="AO29" s="32"/>
-      <c r="AP29" s="32"/>
-      <c r="AQ29" s="32"/>
-      <c r="AR29" s="32"/>
-      <c r="AS29" s="32"/>
-      <c r="AT29" s="32"/>
-      <c r="AU29" s="32"/>
-      <c r="AV29" s="32"/>
+      <c r="C29" s="32">
+        <v>600</v>
+      </c>
+      <c r="D29" s="32">
+        <v>600</v>
+      </c>
+      <c r="E29" s="36">
+        <v>48</v>
+      </c>
+      <c r="F29" s="36">
+        <v>48</v>
+      </c>
+      <c r="G29" s="32">
+        <v>600</v>
+      </c>
+      <c r="H29" s="36">
+        <v>48</v>
+      </c>
+      <c r="I29" s="32">
+        <v>600</v>
+      </c>
+      <c r="J29" s="36">
+        <v>48</v>
+      </c>
+      <c r="K29" s="32">
+        <v>600</v>
+      </c>
+      <c r="L29" s="32">
+        <v>600</v>
+      </c>
+      <c r="M29" s="32">
+        <v>600</v>
+      </c>
+      <c r="N29" s="32">
+        <v>600</v>
+      </c>
+      <c r="O29" s="32">
+        <v>600</v>
+      </c>
+      <c r="P29" s="32">
+        <v>600</v>
+      </c>
+      <c r="Q29" s="32">
+        <v>600</v>
+      </c>
+      <c r="R29" s="32">
+        <v>600</v>
+      </c>
+      <c r="S29" s="32">
+        <v>600</v>
+      </c>
+      <c r="T29" s="32">
+        <v>600</v>
+      </c>
+      <c r="U29" s="32">
+        <v>600</v>
+      </c>
+      <c r="V29" s="32">
+        <v>600</v>
+      </c>
+      <c r="W29" s="32">
+        <v>600</v>
+      </c>
+      <c r="X29" s="45">
+        <v>48</v>
+      </c>
+      <c r="Y29" s="32">
+        <v>600</v>
+      </c>
+      <c r="Z29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AA29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AB29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AC29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AD29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AE29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AF29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AG29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AH29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AI29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AJ29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AK29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AL29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AM29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AN29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AO29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AP29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AQ29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AR29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AS29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AT29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AU29" s="32">
+        <v>600</v>
+      </c>
+      <c r="AV29" s="32">
+        <v>600</v>
+      </c>
     </row>
     <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8227,55 +8316,147 @@
       <c r="A31" s="33">
         <v>28</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
-      <c r="N31" s="42"/>
-      <c r="O31" s="42"/>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="42"/>
-      <c r="R31" s="42"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="32"/>
-      <c r="AK31" s="32"/>
-      <c r="AL31" s="32"/>
-      <c r="AM31" s="32"/>
-      <c r="AN31" s="32"/>
-      <c r="AO31" s="32"/>
-      <c r="AP31" s="32"/>
-      <c r="AQ31" s="32"/>
-      <c r="AR31" s="32"/>
-      <c r="AS31" s="32"/>
-      <c r="AT31" s="32"/>
-      <c r="AU31" s="32"/>
-      <c r="AV31" s="32"/>
+      <c r="C31" s="32">
+        <v>600</v>
+      </c>
+      <c r="D31" s="32">
+        <v>600</v>
+      </c>
+      <c r="E31" s="36">
+        <v>51</v>
+      </c>
+      <c r="F31" s="36">
+        <v>51</v>
+      </c>
+      <c r="G31" s="32">
+        <v>600</v>
+      </c>
+      <c r="H31" s="36">
+        <v>51</v>
+      </c>
+      <c r="I31" s="32">
+        <v>600</v>
+      </c>
+      <c r="J31" s="36">
+        <v>51</v>
+      </c>
+      <c r="K31" s="32">
+        <v>600</v>
+      </c>
+      <c r="L31" s="32">
+        <v>600</v>
+      </c>
+      <c r="M31" s="32">
+        <v>600</v>
+      </c>
+      <c r="N31" s="32">
+        <v>600</v>
+      </c>
+      <c r="O31" s="32">
+        <v>600</v>
+      </c>
+      <c r="P31" s="32">
+        <v>600</v>
+      </c>
+      <c r="Q31" s="32">
+        <v>600</v>
+      </c>
+      <c r="R31" s="32">
+        <v>600</v>
+      </c>
+      <c r="S31" s="32">
+        <v>600</v>
+      </c>
+      <c r="T31" s="32">
+        <v>600</v>
+      </c>
+      <c r="U31" s="32">
+        <v>600</v>
+      </c>
+      <c r="V31" s="36">
+        <v>51</v>
+      </c>
+      <c r="W31" s="32">
+        <v>600</v>
+      </c>
+      <c r="X31" s="45">
+        <v>51</v>
+      </c>
+      <c r="Y31" s="32">
+        <v>600</v>
+      </c>
+      <c r="Z31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AA31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AB31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AC31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AD31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AE31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AF31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AG31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AH31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AI31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AJ31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AK31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AL31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AM31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AN31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AO31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AP31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AQ31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AR31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AS31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AT31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AU31" s="32">
+        <v>600</v>
+      </c>
+      <c r="AV31" s="32">
+        <v>600</v>
+      </c>
     </row>
     <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
@@ -8427,55 +8608,147 @@
       <c r="A33" s="33">
         <v>30</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="42"/>
-      <c r="N33" s="42"/>
-      <c r="O33" s="42"/>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="42"/>
-      <c r="R33" s="42"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="42"/>
-      <c r="AB33" s="42"/>
-      <c r="AC33" s="42"/>
-      <c r="AD33" s="42"/>
-      <c r="AE33" s="42"/>
-      <c r="AF33" s="42"/>
-      <c r="AG33" s="42"/>
-      <c r="AH33" s="42"/>
-      <c r="AI33" s="42"/>
-      <c r="AJ33" s="42"/>
-      <c r="AK33" s="42"/>
-      <c r="AL33" s="42"/>
-      <c r="AM33" s="42"/>
-      <c r="AN33" s="42"/>
-      <c r="AO33" s="42"/>
-      <c r="AP33" s="42"/>
-      <c r="AQ33" s="42"/>
-      <c r="AR33" s="42"/>
-      <c r="AS33" s="42"/>
-      <c r="AT33" s="42"/>
-      <c r="AU33" s="42"/>
-      <c r="AV33" s="42"/>
+      <c r="C33" s="32">
+        <v>600</v>
+      </c>
+      <c r="D33" s="32">
+        <v>600</v>
+      </c>
+      <c r="E33" s="36">
+        <v>53</v>
+      </c>
+      <c r="F33" s="36">
+        <v>53</v>
+      </c>
+      <c r="G33" s="32">
+        <v>600</v>
+      </c>
+      <c r="H33" s="36">
+        <v>53</v>
+      </c>
+      <c r="I33" s="32">
+        <v>600</v>
+      </c>
+      <c r="J33" s="36">
+        <v>53</v>
+      </c>
+      <c r="K33" s="32">
+        <v>600</v>
+      </c>
+      <c r="L33" s="32">
+        <v>600</v>
+      </c>
+      <c r="M33" s="32">
+        <v>600</v>
+      </c>
+      <c r="N33" s="32">
+        <v>600</v>
+      </c>
+      <c r="O33" s="32">
+        <v>600</v>
+      </c>
+      <c r="P33" s="32">
+        <v>600</v>
+      </c>
+      <c r="Q33" s="32">
+        <v>600</v>
+      </c>
+      <c r="R33" s="32">
+        <v>600</v>
+      </c>
+      <c r="S33" s="32">
+        <v>600</v>
+      </c>
+      <c r="T33" s="32">
+        <v>600</v>
+      </c>
+      <c r="U33" s="32">
+        <v>600</v>
+      </c>
+      <c r="V33" s="36">
+        <v>53</v>
+      </c>
+      <c r="W33" s="36">
+        <v>53</v>
+      </c>
+      <c r="X33" s="37">
+        <v>52</v>
+      </c>
+      <c r="Y33" s="32">
+        <v>600</v>
+      </c>
+      <c r="Z33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AA33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AB33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AC33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AD33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AE33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AF33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AG33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AH33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AI33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AJ33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AK33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AL33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AM33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AN33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AO33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AP33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AQ33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AR33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AS33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AT33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AU33" s="32">
+        <v>600</v>
+      </c>
+      <c r="AV33" s="32">
+        <v>600</v>
+      </c>
     </row>
     <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
@@ -8815,22 +9088,22 @@
       <c r="O36" s="32">
         <v>600</v>
       </c>
-      <c r="P36" s="39">
+      <c r="P36" s="38">
         <v>57</v>
       </c>
-      <c r="Q36" s="39">
+      <c r="Q36" s="38">
         <v>59</v>
       </c>
-      <c r="R36" s="39">
+      <c r="R36" s="38">
         <v>61</v>
       </c>
-      <c r="S36" s="39">
+      <c r="S36" s="38">
         <v>60</v>
       </c>
-      <c r="T36" s="39">
+      <c r="T36" s="38">
         <v>62</v>
       </c>
-      <c r="U36" s="39">
+      <c r="U36" s="38">
         <v>58</v>
       </c>
       <c r="V36" s="36">
@@ -8979,10 +9252,10 @@
       <c r="U37" s="36">
         <v>58</v>
       </c>
-      <c r="V37" s="46">
-        <v>600</v>
-      </c>
-      <c r="W37" s="43">
+      <c r="V37" s="44">
+        <v>600</v>
+      </c>
+      <c r="W37" s="41">
         <v>600</v>
       </c>
       <c r="X37" s="32">
